--- a/biology/Zoologie/Eogomphus_neglectus/Eogomphus_neglectus.xlsx
+++ b/biology/Zoologie/Eogomphus_neglectus/Eogomphus_neglectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eogomphus
-Eogomphus neglectus, unique représentant du genre Eogomphus, est une espèce de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates)[1]. 
+Eogomphus neglectus, unique représentant du genre Eogomphus, est une espèce de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Eogomphus a été créé en 1944 par l'entomologiste américain James George Needham[4] (1868-1957). 
-L'espèce Eogomphus neglectus a été initialement décrite en 1930 par ce même entomologiste sous le protonyme Gomphus neglectus[4]
-Eogomphus neglectus a pour synonyme[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Eogomphus a été créé en 1944 par l'entomologiste américain James George Needham (1868-1957). 
+L'espèce Eogomphus neglectus a été initialement décrite en 1930 par ce même entomologiste sous le protonyme Gomphus neglectus
+Eogomphus neglectus a pour synonyme :
 Gomphus neglectus Needham, 1930</t>
         </is>
       </c>
